--- a/src/attributions/attributions_saliency_traj_128.xlsx
+++ b/src/attributions/attributions_saliency_traj_128.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1237073913216591</v>
+        <v>0.518732488155365</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006673812866210938</v>
+        <v>0.5316336750984192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8058012127876282</v>
+        <v>0.6289333701133728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3392107784748077</v>
+        <v>0.25147345662117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8712106943130493</v>
+        <v>1.008325815200806</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02819313108921051</v>
+        <v>0.2781845033168793</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06138058006763458</v>
+        <v>0.001474291086196899</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1766529083251953</v>
+        <v>0.01697372645139694</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4865740537643433</v>
+        <v>0.1856520026922226</v>
       </c>
       <c r="J3" t="n">
-        <v>0.176492840051651</v>
+        <v>0.1729345917701721</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1482458114624023</v>
+        <v>0.3482444584369659</v>
       </c>
       <c r="L3" t="n">
-        <v>1.000722765922546</v>
+        <v>0.3479534387588501</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2795727849006653</v>
+        <v>0.1156753897666931</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6743831634521484</v>
+        <v>0.8882746696472168</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0468929260969162</v>
+        <v>0.002514648716896772</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1999293565750122</v>
+        <v>0.07121498882770538</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2955810725688934</v>
+        <v>0.02641119621694088</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5555089712142944</v>
+        <v>0.337518721818924</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1044473275542259</v>
+        <v>0.02367529273033142</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1899368613958359</v>
+        <v>0.2085833102464676</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04302738234400749</v>
+        <v>0.218674510717392</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05184619501233101</v>
+        <v>0.108062669634819</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2286707013845444</v>
+        <v>0.1342399567365646</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2120950222015381</v>
+        <v>0.1140609607100487</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03037361055612564</v>
+        <v>0.06117454171180725</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03042172454297543</v>
+        <v>0.1371892541646957</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03165540471673012</v>
+        <v>0.06047366932034492</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04129933938384056</v>
+        <v>0.1611845940351486</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2211233377456665</v>
+        <v>0.05409006774425507</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1077995672821999</v>
+        <v>0.04286545142531395</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1463752239942551</v>
+        <v>0.3025596737861633</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1809550225734711</v>
+        <v>0.06871569156646729</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.100681334733963</v>
+        <v>0.05785724520683289</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0407554879784584</v>
+        <v>0.01783028617501259</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2087070643901825</v>
+        <v>0.07965368032455444</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.3217262029647827</v>
+        <v>0.1525722444057465</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1254312545061111</v>
+        <v>0.02068084478378296</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2152957022190094</v>
+        <v>0.2878142595291138</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2080114185810089</v>
+        <v>0.1532977968454361</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.05395004898309708</v>
+        <v>0.09217466413974762</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.07672834396362305</v>
+        <v>0.09447993338108063</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.143069863319397</v>
+        <v>0.0387738049030304</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01604941673576832</v>
+        <v>0.04698749631643295</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1273196339607239</v>
+        <v>0.01625905558466911</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.04680808633565903</v>
+        <v>0.124241515994072</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1032778844237328</v>
+        <v>0.2594515979290009</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.02162508107721806</v>
+        <v>0.02631910890340805</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.4889400899410248</v>
+        <v>0.4809629321098328</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1419002115726471</v>
+        <v>0.05221649259328842</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1653300523757935</v>
+        <v>0.8634307384490967</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.3896338939666748</v>
+        <v>0.1585285663604736</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1845380067825317</v>
+        <v>0.05920599773526192</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.08332022279500961</v>
+        <v>0.2144436240196228</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.06118742749094963</v>
+        <v>0.08401647955179214</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1076790392398834</v>
+        <v>0.3281638920307159</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.01566110737621784</v>
+        <v>0.224338561296463</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1331772357225418</v>
+        <v>0.1490432024002075</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.04605090245604515</v>
+        <v>0.1804174780845642</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.3379281759262085</v>
+        <v>0.5574800372123718</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.151430144906044</v>
+        <v>0.5032857656478882</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.03257760405540466</v>
+        <v>0.1090143546462059</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.02507124282419682</v>
+        <v>0.3206922113895416</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.08451354503631592</v>
+        <v>0.4189245104789734</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.09403194487094879</v>
+        <v>0.2692915201187134</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.02504177950322628</v>
+        <v>0.1468667089939117</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.2448693513870239</v>
+        <v>0.2028206139802933</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.06116631627082825</v>
+        <v>0.2039062976837158</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1217413246631622</v>
+        <v>0.3488410413265228</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02392681688070297</v>
+        <v>0.03394117951393127</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.114094153046608</v>
+        <v>0.1838487982749939</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.110498733818531</v>
+        <v>0.07352456450462341</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.006405501626431942</v>
+        <v>0.1130775362253189</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1926207095384598</v>
+        <v>0.104955293238163</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.07784069329500198</v>
+        <v>0.07159591466188431</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.2840651571750641</v>
+        <v>0.1662525236606598</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0600937157869339</v>
+        <v>0.1306954622268677</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.2881814241409302</v>
+        <v>0.5254098773002625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.04247643426060677</v>
+        <v>0.06664920598268509</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.07085861265659332</v>
+        <v>0.06401605904102325</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.03499463945627213</v>
+        <v>0.1758464425802231</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1451285928487778</v>
+        <v>0.2596655189990997</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0465606190264225</v>
+        <v>0.05339837819337845</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.1334236413240433</v>
+        <v>0.1347250640392303</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.170221209526062</v>
+        <v>0.13913594186306</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.1049325987696648</v>
+        <v>0.1095369756221771</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.1320171058177948</v>
+        <v>0.1906037926673889</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.04668204486370087</v>
+        <v>0.001319528091698885</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.009814958088099957</v>
+        <v>0.007941132411360741</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0009917141869664192</v>
+        <v>0.01396334916353226</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.05873136222362518</v>
+        <v>0.0108463242650032</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.04299752786755562</v>
+        <v>0.005275476723909378</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.3431766629219055</v>
+        <v>0.1884082853794098</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.03321517258882523</v>
+        <v>0.1629605293273926</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.1040355861186981</v>
+        <v>0.280005156993866</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.008220862597227097</v>
+        <v>0.590599536895752</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.1051771193742752</v>
+        <v>0.08972786366939545</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.09247829020023346</v>
+        <v>0.1920211315155029</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.1198954656720161</v>
+        <v>0.04865116998553276</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.2748270332813263</v>
+        <v>0.04621680825948715</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.04350996762514114</v>
+        <v>0.007084798067808151</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.1081069558858871</v>
+        <v>0.1411769241094589</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.1601715683937073</v>
+        <v>0.09811133146286011</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.07173299044370651</v>
+        <v>0.1333299577236176</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2229601442813873</v>
+        <v>0.09578926861286163</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.03813702240586281</v>
+        <v>0.02139968425035477</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.02476292476058006</v>
+        <v>0.0009715892374515533</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.01743212155997753</v>
+        <v>0.005416764877736568</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.06007311120629311</v>
+        <v>0.018059017136693</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0504654198884964</v>
+        <v>0.2452234625816345</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1638101488351822</v>
+        <v>0.1230483055114746</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.4241949319839478</v>
+        <v>0.1923292279243469</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2831207513809204</v>
+        <v>0.6173896789550781</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.03656240552663803</v>
+        <v>0.2074626237154007</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.05950535833835602</v>
+        <v>0.1535195857286453</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.1681151688098907</v>
+        <v>0.04120104387402534</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.2974690794944763</v>
+        <v>0.009553556330502033</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.08855433762073517</v>
+        <v>0.02381911501288414</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02582684345543385</v>
+        <v>0.1363124698400497</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.242214560508728</v>
+        <v>0.2234256863594055</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.06156843155622482</v>
+        <v>0.145975261926651</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.03023299761116505</v>
+        <v>0.1398289501667023</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0163634866476059</v>
+        <v>0.3163182139396667</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.06681409478187561</v>
+        <v>0.1272043436765671</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.08177407830953598</v>
+        <v>0.1571699380874634</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.2204253971576691</v>
+        <v>0.1494054198265076</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001030813902616501</v>
+        <v>0.1872348934412003</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.1090644001960754</v>
+        <v>0.02633764781057835</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.125389963388443</v>
+        <v>0.1149201244115829</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.06969299912452698</v>
+        <v>0.1490999013185501</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.00587441585958004</v>
+        <v>0.2317953258752823</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.08038073033094406</v>
+        <v>0.111133836209774</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.002992767840623856</v>
+        <v>0.03911703824996948</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.05600475519895554</v>
+        <v>0.04945838451385498</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.1286783218383789</v>
+        <v>0.02498351410031319</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.04987297207117081</v>
+        <v>0.1402898728847504</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.08152265101671219</v>
+        <v>0.02592691406607628</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.04635312035679817</v>
+        <v>0.06668712198734283</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.1632770299911499</v>
+        <v>0.2579258978366852</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.05932645499706268</v>
+        <v>0.2218336462974548</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.1538476049900055</v>
+        <v>0.05060270801186562</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.2179058045148849</v>
+        <v>0.1213567107915878</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.04745146259665489</v>
+        <v>0.001975096762180328</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.08855739235877991</v>
+        <v>0.06954517960548401</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.01763186231255531</v>
+        <v>0.05846498534083366</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0544193759560585</v>
+        <v>0.1563653200864792</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0336604155600071</v>
+        <v>0.03385762125253677</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.08289793133735657</v>
+        <v>0.0187741257250309</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.1767310798168182</v>
+        <v>0.2319753170013428</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.1575363725423813</v>
+        <v>0.2924412190914154</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.04640659317374229</v>
+        <v>0.05435751751065254</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.1399568170309067</v>
+        <v>0.04259458929300308</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.07476380467414856</v>
+        <v>0.02590357325971127</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.08989892899990082</v>
+        <v>0.1630536317825317</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.07173791527748108</v>
+        <v>0.01750178262591362</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.1046343594789505</v>
+        <v>0.07578318566083908</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.2004442512989044</v>
+        <v>0.0933910608291626</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.08611497282981873</v>
+        <v>0.07936812192201614</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.1700887680053711</v>
+        <v>0.111648753285408</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.02194082736968994</v>
+        <v>0.04364107921719551</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.007334113121032715</v>
+        <v>0.05975193902850151</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.01860417425632477</v>
+        <v>0.01927242614328861</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.05493903532624245</v>
+        <v>0.008661303669214249</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.06328223645687103</v>
+        <v>0.04217254742980003</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.007496161386370659</v>
+        <v>0.0460895262658596</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.07305298745632172</v>
+        <v>0.04846252873539925</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.1333525627851486</v>
+        <v>0.1307123899459839</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1500036269426346</v>
+        <v>0.1520342975854874</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.06819175183773041</v>
+        <v>0.05047869682312012</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02843396179378033</v>
+        <v>0.197992354631424</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.1245592311024666</v>
+        <v>0.005067359656095505</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.1208446770906448</v>
+        <v>0.1324134767055511</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.1241185665130615</v>
+        <v>0.1274519711732864</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.4853177070617676</v>
+        <v>0.1315889954566956</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02638731151819229</v>
+        <v>0.1585732996463776</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.09613816440105438</v>
+        <v>0.1261947154998779</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.1660227477550507</v>
+        <v>0.256826639175415</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.2197625935077667</v>
+        <v>0.1723895370960236</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.000953109934926033</v>
+        <v>0.05596822872757912</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.1739878356456757</v>
+        <v>0.2947936058044434</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.09732889384031296</v>
+        <v>0.05909900367259979</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1009387969970703</v>
+        <v>0.03142775222659111</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.08956433087587357</v>
+        <v>0.2469455450773239</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.04443798214197159</v>
+        <v>0.1077675521373749</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.06958525627851486</v>
+        <v>0.1137115508317947</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.08967630565166473</v>
+        <v>0.09333084523677826</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.1224530190229416</v>
+        <v>0.1416878700256348</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02947400882840157</v>
+        <v>0.1370646953582764</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.006612863391637802</v>
+        <v>0.06194289773702621</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.01012866571545601</v>
+        <v>0.04642025381326675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04830266907811165</v>
+        <v>0.05197950080037117</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02654625289142132</v>
+        <v>0.4855176508426666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1530682146549225</v>
+        <v>0.02821108140051365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07089464366436005</v>
+        <v>0.2809586524963379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04042179137468338</v>
+        <v>0.01214724406599998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02418256178498268</v>
+        <v>0.1198822185397148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01667188480496407</v>
+        <v>0.01669128611683846</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04813198745250702</v>
+        <v>0.05028551816940308</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1096394956111908</v>
+        <v>0.01909320428967476</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01593305170536041</v>
+        <v>0.08649181574583054</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01602040231227875</v>
+        <v>0.3276216983795166</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1630458533763885</v>
+        <v>0.018982769921422</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03162185475230217</v>
+        <v>0.2793785333633423</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008544910699129105</v>
+        <v>0.09670212119817734</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01147804595530033</v>
+        <v>0.1668866276741028</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03362234309315681</v>
+        <v>0.01126629114151001</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07997391372919083</v>
+        <v>0.02621287852525711</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1342502981424332</v>
+        <v>0.05425384268164635</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001050765393301845</v>
+        <v>0.01721889339387417</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05634822696447372</v>
+        <v>0.06583236157894135</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006376900710165501</v>
+        <v>0.01095103193074465</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02342043444514275</v>
+        <v>0.06065648794174194</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02798173762857914</v>
+        <v>0.02964404225349426</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007506784982979298</v>
+        <v>0.0288748387247324</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001099750166758895</v>
+        <v>0.04264169931411743</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03120823949575424</v>
+        <v>0.04172477871179581</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02312945760786533</v>
+        <v>0.04102058336138725</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.007863661274313927</v>
+        <v>0.03264322876930237</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0197322890162468</v>
+        <v>0.06294571608304977</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01086112204939127</v>
+        <v>0.005388098768889904</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01671707816421986</v>
+        <v>0.01555862277746201</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01447909604758024</v>
+        <v>0.008819043636322021</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02643042802810669</v>
+        <v>0.005153689533472061</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.003964369185268879</v>
+        <v>0.02922048605978489</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.040677759796381</v>
+        <v>0.01496904622763395</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.05519385635852814</v>
+        <v>0.02378188632428646</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01716694608330727</v>
+        <v>0.02819530293345451</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.03393572941422462</v>
+        <v>0.05557640641927719</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01488011889159679</v>
+        <v>0.005171684548258781</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01467351242899895</v>
+        <v>0.02974363230168819</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01556829642504454</v>
+        <v>0.02007430605590343</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.03520499914884567</v>
+        <v>0.06696841865777969</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.003069441067054868</v>
+        <v>0.01641109585762024</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.00806941743940115</v>
+        <v>0.03013666160404682</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.26176255941391e-06</v>
+        <v>0.02917324006557465</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02222900837659836</v>
+        <v>0.04557377099990845</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02791112288832664</v>
+        <v>0.3511514663696289</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.09547419846057892</v>
+        <v>0.0002959193661808968</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.04347452521324158</v>
+        <v>0.04788226634263992</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.001106748357415199</v>
+        <v>0.0887247622013092</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0728643462061882</v>
+        <v>0.01336588244885206</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.001697892788797617</v>
+        <v>0.0143206212669611</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.02355997450649738</v>
+        <v>0.02431102097034454</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.03853493183851242</v>
+        <v>0.03603310883045197</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.002533620456233621</v>
+        <v>0.02671853639185429</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01236552558839321</v>
+        <v>0.06959628313779831</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.05024903267621994</v>
+        <v>0.06468752771615982</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0115101421251893</v>
+        <v>0.0732743889093399</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01662907004356384</v>
+        <v>0.1349589079618454</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.02023094706237316</v>
+        <v>0.07127615064382553</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01399088092148304</v>
+        <v>0.06243941932916641</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.003409303724765778</v>
+        <v>0.04777223616838455</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.009581292979419231</v>
+        <v>0.01825359836220741</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.003127009142190218</v>
+        <v>0.065602146089077</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.004681486636400223</v>
+        <v>0.06649273633956909</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.03856489062309265</v>
+        <v>0.02059587463736534</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.002478310139849782</v>
+        <v>0.05013670027256012</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.02166251093149185</v>
+        <v>0.03147546574473381</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.001303723896853626</v>
+        <v>0.02302549034357071</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.01741576194763184</v>
+        <v>0.01705588586628437</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.04151083528995514</v>
+        <v>0.0022702906280756</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.02779276482760906</v>
+        <v>0.02627801708877087</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.02414984442293644</v>
+        <v>0.03403905034065247</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.01046392694115639</v>
+        <v>0.1710293889045715</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.03736987337470055</v>
+        <v>0.02346931211650372</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.02202452346682549</v>
+        <v>0.0272484328597784</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.009510514326393604</v>
+        <v>0.01575826294720173</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.001188256312161684</v>
+        <v>0.0602298341691494</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.008437030017375946</v>
+        <v>0.008172136731445789</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.006524687167257071</v>
+        <v>0.01053509954363108</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0458962544798851</v>
+        <v>0.04238754883408546</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.01402425300329924</v>
+        <v>0.02965495921671391</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.01859470643103123</v>
+        <v>0.07924612611532211</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02885187231004238</v>
+        <v>0.03124220855534077</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.01066029258072376</v>
+        <v>0.02855437248945236</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.007237653248012066</v>
+        <v>0.02494167163968086</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.004189383238554001</v>
+        <v>0.02120761759579182</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.001054127933457494</v>
+        <v>0.02233831025660038</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.009605783969163895</v>
+        <v>0.008766308426856995</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01556885242462158</v>
+        <v>0.01464071311056614</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.01887733116745949</v>
+        <v>0.04900170117616653</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.05847832560539246</v>
+        <v>0.01999267563223839</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.01386146247386932</v>
+        <v>0.03428234159946442</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.01167509332299232</v>
+        <v>0.08697895705699921</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.00164259085431695</v>
+        <v>0.06583730131387711</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.003627914469689131</v>
+        <v>0.04710642993450165</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.00215000007301569</v>
+        <v>0.0383949875831604</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.007738716900348663</v>
+        <v>0.07376513630151749</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.04741296917200089</v>
+        <v>0.002628300804644823</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.01414819154888391</v>
+        <v>0.0272995512932539</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.01344180107116699</v>
+        <v>0.06667393445968628</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.02453760243952274</v>
+        <v>0.02971046604216099</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.01328320801258087</v>
+        <v>0.05148841440677643</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02036033570766449</v>
+        <v>0.03244812414050102</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.000654847826808691</v>
+        <v>0.03134956955909729</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.002043281216174364</v>
+        <v>0.02412066794931889</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.01136966608464718</v>
+        <v>0.01420357637107372</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.01582350954413414</v>
+        <v>0.005267268978059292</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.02253146097064018</v>
+        <v>0.02347438782453537</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0398956835269928</v>
+        <v>0.04206426441669464</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.03558934479951859</v>
+        <v>0.00222699181176722</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.03357157856225967</v>
+        <v>0.06304179131984711</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01105979643762112</v>
+        <v>0.03516829013824463</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.04018271341919899</v>
+        <v>0.01694917865097523</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.02541219256818295</v>
+        <v>0.005285978317260742</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.01332751475274563</v>
+        <v>0.0109620438888669</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02627408877015114</v>
+        <v>0.01644724793732166</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01168484706431627</v>
+        <v>0.0538036935031414</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.01786407455801964</v>
+        <v>0.03174745664000511</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.01501013711094856</v>
+        <v>0.0309627465903759</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01199957355856895</v>
+        <v>0.01972798816859722</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.007897544652223587</v>
+        <v>0.03272543475031853</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.03143319115042686</v>
+        <v>0.05081082880496979</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.00560392253100872</v>
+        <v>0.01234668493270874</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.01195812784135342</v>
+        <v>0.006716395728290081</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.02400706335902214</v>
+        <v>0.02624006569385529</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.002151904627680779</v>
+        <v>0.03272098675370216</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.001286096405237913</v>
+        <v>0.004032781347632408</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01708041131496429</v>
+        <v>0.0677015483379364</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.002652192488312721</v>
+        <v>0.01091496553272009</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.009177724830806255</v>
+        <v>0.05943558737635612</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.01213372405618429</v>
+        <v>0.02303313091397285</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.005824568681418896</v>
+        <v>0.003342850366607308</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.02562434040009975</v>
+        <v>0.01345774158835411</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.007621661759912968</v>
+        <v>0.01861121319234371</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.01717568002641201</v>
+        <v>0.008914344012737274</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.02042754366993904</v>
+        <v>0.03727654367685318</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.02321589551866055</v>
+        <v>0.004861777648329735</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.00117247155867517</v>
+        <v>0.02465972304344177</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.01170985028147697</v>
+        <v>0.0009001221042126417</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.01016862131655216</v>
+        <v>0.01866279542446136</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0007460798369720578</v>
+        <v>0.02220542542636395</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.02329067513346672</v>
+        <v>0.002603403758257627</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.007724541239440441</v>
+        <v>0.001197793055325747</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.02392882853746414</v>
+        <v>0.02807551249861717</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0009226695401594043</v>
+        <v>0.05919355526566505</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0068044806830585</v>
+        <v>0.001089862664230168</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.01803608797490597</v>
+        <v>0.04886192083358765</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.00527103990316391</v>
+        <v>0.04754649847745895</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.002330162562429905</v>
+        <v>0.1203116923570633</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.01266200095415115</v>
+        <v>0.03578749671578407</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.007568985689431429</v>
+        <v>0.02975077554583549</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.03696735575795174</v>
+        <v>0.007486818358302116</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.006998914293944836</v>
+        <v>0.01790042780339718</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.01374580711126328</v>
+        <v>0.0643375962972641</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.02722762152552605</v>
+        <v>0.0127679044380784</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.01094517670571804</v>
+        <v>0.04154352843761444</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.004712818190455437</v>
+        <v>0.02813980542123318</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.002102420199662447</v>
+        <v>0.03011521883308887</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.002631228882819414</v>
+        <v>0.02912266924977303</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.014241062104702</v>
+        <v>0.01190689392387867</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.02281313575804234</v>
+        <v>0.0175220463424921</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.001000920427031815</v>
+        <v>0.01674945652484894</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.008231231011450291</v>
+        <v>0.03377683460712433</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.01780185662209988</v>
+        <v>0.01513462886214256</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.02453812025487423</v>
+        <v>0.04156716912984848</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01283907331526279</v>
+        <v>0.0248387698084116</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.005659915041178465</v>
+        <v>0.01405899971723557</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.009497446939349174</v>
+        <v>0.006590384989976883</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.003159007290378213</v>
+        <v>0.01440253108739853</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.02729774639010429</v>
+        <v>0.02935420721769333</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.008274616673588753</v>
+        <v>0.01829812489449978</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.03766189143061638</v>
+        <v>0.01927214674651623</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0217201542109251</v>
+        <v>0.0003578895702958107</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.016380300745368</v>
+        <v>0.0415644645690918</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.03025974333286285</v>
+        <v>0.08517244458198547</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.01822582446038723</v>
+        <v>0.01796434074640274</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.006286363583058119</v>
+        <v>0.02178524434566498</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.01437556836754084</v>
+        <v>0.01359726395457983</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.01438350416719913</v>
+        <v>0.02338017150759697</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.02202221006155014</v>
+        <v>0.06476226449012756</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.02770688757300377</v>
+        <v>0.02953805960714817</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.003523168852552772</v>
+        <v>0.02361995354294777</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0329204834997654</v>
+        <v>0.01875373907387257</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.004638029262423515</v>
+        <v>0.03131196647882462</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.04366429150104523</v>
+        <v>0.04064767807722092</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.02136372588574886</v>
+        <v>0.1108182817697525</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.03077463991940022</v>
+        <v>0.008570335805416107</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.002727591432631016</v>
+        <v>0.01625575870275497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02877569943666458</v>
+        <v>0.00442784558981657</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06390021741390228</v>
+        <v>0.02644891664385796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00156712718307972</v>
+        <v>0.004728595726191998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03821709007024765</v>
+        <v>0.01396144740283489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02331874519586563</v>
+        <v>0.02227663062512875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005507767200469971</v>
+        <v>0.09530112147331238</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05819129943847656</v>
+        <v>0.02063008211553097</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02067010477185249</v>
+        <v>0.03063107281923294</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0493520013988018</v>
+        <v>0.02705815061926842</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01673431694507599</v>
+        <v>0.009620007127523422</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06753752380609512</v>
+        <v>0.001516471616923809</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004253414459526539</v>
+        <v>0.02176045998930931</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009577173739671707</v>
+        <v>0.01025712676346302</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03243224322795868</v>
+        <v>0.004359748680144548</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00368292722851038</v>
+        <v>0.08198286592960358</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05690890550613403</v>
+        <v>0.01162580028176308</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004387910943478346</v>
+        <v>0.04499657824635506</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01875865459442139</v>
+        <v>0.01177291292697191</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0253007747232914</v>
+        <v>0.004556036554276943</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01337986718863249</v>
+        <v>0.004568557254970074</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0150416623800993</v>
+        <v>0.008362414315342903</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01113852672278881</v>
+        <v>0.00729731610044837</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04384660348296165</v>
+        <v>0.02790413424372673</v>
       </c>
       <c r="X5" t="n">
-        <v>0.006677010096609592</v>
+        <v>0.0083769541233778</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03297398611903191</v>
+        <v>0.005876834969967604</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03141017258167267</v>
+        <v>0.007372975815087557</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.009713484905660152</v>
+        <v>0.005319893360137939</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01705845072865486</v>
+        <v>0.005028113722801208</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.005676936358213425</v>
+        <v>0.01512375846505165</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03508605808019638</v>
+        <v>0.02703345566987991</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04060138016939163</v>
+        <v>0.006376053206622601</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01583072356879711</v>
+        <v>0.003627964295446873</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.004777887836098671</v>
+        <v>0.0009949852246791124</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.00310048833489418</v>
+        <v>0.0224299468100071</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.007369156926870346</v>
+        <v>0.004626291804015636</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0248720720410347</v>
+        <v>0.009268177673220634</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.01193388924002647</v>
+        <v>0.004896057303994894</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.005262379534542561</v>
+        <v>0.004807756748050451</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.009844917804002762</v>
+        <v>0.0002115801908075809</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002656186930835247</v>
+        <v>0.007168718613684177</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01235959678888321</v>
+        <v>0.0110802911221981</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.009407266043126583</v>
+        <v>0.007523083128035069</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.004495652392506599</v>
+        <v>0.005668319296091795</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.01662155613303185</v>
+        <v>0.002744578290730715</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0003961699549108744</v>
+        <v>0.002847996540367603</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.03869229555130005</v>
+        <v>0.00952478963881731</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.04490179196000099</v>
+        <v>0.02367560006678104</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.002626213012263179</v>
+        <v>0.004953600931912661</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01097489800304174</v>
+        <v>0.03304009512066841</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.04334404692053795</v>
+        <v>0.04857243597507477</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01890480518341064</v>
+        <v>0.05150039494037628</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.01426041778177023</v>
+        <v>0.01171196158975363</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02404757216572762</v>
+        <v>0.008943893946707249</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.05584890767931938</v>
+        <v>0.0162830762565136</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.04246490448713303</v>
+        <v>0.003206566441804171</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.03159656375646591</v>
+        <v>0.005304973106831312</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.01375911943614483</v>
+        <v>0.01486502680927515</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.03596452996134758</v>
+        <v>0.006102991290390491</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.04928634688258171</v>
+        <v>8.900044485926628e-05</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.007463705725967884</v>
+        <v>0.02680080756545067</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.04919116199016571</v>
+        <v>0.004686045460402966</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.005878108087927103</v>
+        <v>0.01449379976838827</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.03352199867367744</v>
+        <v>0.002742755692452192</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.004775661043822765</v>
+        <v>0.007782167289406061</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.02573968842625618</v>
+        <v>0.03044067695736885</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0227118693292141</v>
+        <v>0.005861920770257711</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.02766956388950348</v>
+        <v>0.006336776074022055</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.001606111531145871</v>
+        <v>0.005669808015227318</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.00688672112300992</v>
+        <v>0.006402874365448952</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01198082510381937</v>
+        <v>0.008209865540266037</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.01938320696353912</v>
+        <v>0.01158679090440273</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.007442252710461617</v>
+        <v>0.01206782832741737</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.02521334588527679</v>
+        <v>0.005304465070366859</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.02490095794200897</v>
+        <v>0.008312656544148922</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.01240472309291363</v>
+        <v>0.008283593691885471</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0194624736905098</v>
+        <v>0.01402527838945389</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03094123490154743</v>
+        <v>0.02447643131017685</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.003171724732965231</v>
+        <v>0.034329853951931</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01034252811223269</v>
+        <v>0.003842257894575596</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02441502176225185</v>
+        <v>0.002424886450171471</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.04813690856099129</v>
+        <v>0.006566840223968029</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.009060586802661419</v>
+        <v>0.001574086956679821</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.007860618643462658</v>
+        <v>0.0008475224603898823</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.006110065151005983</v>
+        <v>0.005348652601242065</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.01701250299811363</v>
+        <v>0.00180165481287986</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.005311579909175634</v>
+        <v>0.007513921242207289</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.004654445685446262</v>
+        <v>0.01917770318686962</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0118263503536582</v>
+        <v>0.0004667495377361774</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.001427610754035413</v>
+        <v>0.008793718181550503</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.006796854548156261</v>
+        <v>0.0006110362010076642</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.01887618005275726</v>
+        <v>0.007866762578487396</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01250480860471725</v>
+        <v>0.01247899048030376</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.01198451220989227</v>
+        <v>0.003628325648605824</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01863463222980499</v>
+        <v>0.01395053416490555</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.01601171866059303</v>
+        <v>0.03174686059355736</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.02533454447984695</v>
+        <v>0.01320891082286835</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.01650888472795486</v>
+        <v>0.009324217215180397</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.009793855249881744</v>
+        <v>0.002603796543553472</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0001447168178856373</v>
+        <v>0.01000735629349947</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.008116330951452255</v>
+        <v>0.001207002671435475</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.006756594404578209</v>
+        <v>0.003355611814185977</v>
       </c>
       <c r="CX5" t="n">
-        <v>7.576588541269302e-05</v>
+        <v>0.005493904929608107</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01274663582444191</v>
+        <v>0.001147671369835734</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001589858089573681</v>
+        <v>0.006474018096923828</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.00177368673030287</v>
+        <v>0.01608084142208099</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.01119260955601931</v>
+        <v>0.001329233404248953</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.002507001627236605</v>
+        <v>0.009274665266275406</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.007293086033314466</v>
+        <v>0.003957969136536121</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.02063672617077827</v>
+        <v>0.005923688411712646</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01486331876367331</v>
+        <v>0.007158208172768354</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0009422414004802704</v>
+        <v>0.003989102318882942</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.05023746937513351</v>
+        <v>0.03175516426563263</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.009364699944853783</v>
+        <v>0.01556725800037384</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01011074893176556</v>
+        <v>0.01331712305545807</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.001631847582757473</v>
+        <v>0.005389486439526081</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.01072140410542488</v>
+        <v>0.0157739445567131</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0003766028676182032</v>
+        <v>0.02654312551021576</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002500491216778755</v>
+        <v>0.006637669634073973</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01808304153382778</v>
+        <v>0.008779933676123619</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.01073853857815266</v>
+        <v>0.008544948883354664</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01179671846330166</v>
+        <v>0.01357682328671217</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.009080816991627216</v>
+        <v>0.01223178114742041</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0251509603112936</v>
+        <v>0.007557201664894819</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.008179682306945324</v>
+        <v>0.01522280462086201</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.02504429593682289</v>
+        <v>0.006865677889436483</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.02302305959165096</v>
+        <v>0.004922641906887293</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001220423262566328</v>
+        <v>0.004972739145159721</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.01345221698284149</v>
+        <v>0.001651655649766326</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0007845722138881683</v>
+        <v>0.007375096436589956</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01077998522669077</v>
+        <v>0.006659340113401413</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01747564412653446</v>
+        <v>0.001559318974614143</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.01708522439002991</v>
+        <v>0.01407800335437059</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0133926123380661</v>
+        <v>0.008197557181119919</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.007038555108010769</v>
+        <v>0.008328283205628395</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.004699543584138155</v>
+        <v>0.004742323886603117</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.02190870046615601</v>
+        <v>0.0002509297337383032</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.00182311562821269</v>
+        <v>0.0005618197610601783</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.006443845108151436</v>
+        <v>0.004847126081585884</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.008204642683267593</v>
+        <v>0.003859253134578466</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01029818225651979</v>
+        <v>0.003948469646275043</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.01113113481551409</v>
+        <v>0.01494686026126146</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.006075917277485132</v>
+        <v>0.001622650073841214</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.004142632242292166</v>
+        <v>0.006863743532449007</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.01067840401083231</v>
+        <v>0.003727766452357173</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.002560675144195557</v>
+        <v>0.004783010110259056</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.02293188311159611</v>
+        <v>0.001251021167263389</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.02414016425609589</v>
+        <v>0.006773286499083042</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.02453972399234772</v>
+        <v>0.00196793070062995</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01261296216398478</v>
+        <v>0.005704887211322784</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0010367565555498</v>
+        <v>0.0002761082723736763</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01664424128830433</v>
+        <v>0.004158764146268368</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.00247365003451705</v>
+        <v>0.03824516758322716</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01108454260975122</v>
+        <v>0.006763407960534096</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.009746838361024857</v>
+        <v>0.001955523155629635</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00662987120449543</v>
+        <v>0.004264084622263908</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.003220444777980447</v>
+        <v>0.00235453643836081</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01562135294079781</v>
+        <v>0.001128086820244789</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.005942726042121649</v>
+        <v>0.009139318950474262</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.001464376808144152</v>
+        <v>0.01637377962470055</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.01437851041555405</v>
+        <v>0.002312061609700322</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.002059836871922016</v>
+        <v>0.009864192456007004</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.009887244552373886</v>
+        <v>0.0009561344049870968</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.01357527635991573</v>
+        <v>0.007574503310024738</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.004076053388416767</v>
+        <v>0.001919810078106821</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.01174828410148621</v>
+        <v>0.004731266759335995</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.01375416200608015</v>
+        <v>0.01625611633062363</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0220311600714922</v>
+        <v>0.002961842343211174</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.02346193417906761</v>
+        <v>0.01267967559397221</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0223503727465868</v>
+        <v>0.0003070312086492777</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002981281373649836</v>
+        <v>0.01782587170600891</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.02600606344640255</v>
+        <v>0.009724275209009647</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01450388133525848</v>
+        <v>0.02074801363050938</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.01084539014846087</v>
+        <v>0.007115581538528204</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.003610449144616723</v>
+        <v>0.006071174517273903</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.03317435085773468</v>
+        <v>0.002859264146536589</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.005708550568670034</v>
+        <v>0.01628576964139938</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0018593535060063</v>
+        <v>0.02153266221284866</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.030285419896245</v>
+        <v>0.003224274609237909</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.03894269093871117</v>
+        <v>0.01549624279141426</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.03466890752315521</v>
+        <v>0.01640106737613678</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0002898667007684708</v>
+        <v>0.01463032606989145</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.01508523244410753</v>
+        <v>0.008251173421740532</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0029794005677104</v>
+        <v>0.01524379570037127</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.04994784668087959</v>
+        <v>0.001966021023690701</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.02179904095828533</v>
+        <v>0.01350612379610538</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.003231672802940011</v>
+        <v>0.002252007368952036</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.01192428916692734</v>
+        <v>0.007737987674772739</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01286196056753397</v>
+        <v>0.01858247257769108</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0293098259717226</v>
+        <v>0.01448941510170698</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004280192777514458</v>
+        <v>0.0007232131902128458</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0002714726724661887</v>
+        <v>0.07323697209358215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00494907982647419</v>
+        <v>0.009332195855677128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001949670375324786</v>
+        <v>0.03504924103617668</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002695169299840927</v>
+        <v>0.03907980024814606</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005833315080963075</v>
+        <v>0.02990692853927612</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00129383709281683</v>
+        <v>0.01423895452171564</v>
       </c>
       <c r="H7" t="n">
-        <v>7.702370203332976e-05</v>
+        <v>0.02402032166719437</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001437146565876901</v>
+        <v>0.001835681730881333</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004451452754437923</v>
+        <v>0.0008072894997894764</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004425518272910267</v>
+        <v>0.06137196347117424</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005058933515101671</v>
+        <v>0.003436010796576738</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009729483863338828</v>
+        <v>0.02113978937268257</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001184357097372413</v>
+        <v>0.02477126754820347</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0004245443269610405</v>
+        <v>0.02941547520458698</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0004994723713025451</v>
+        <v>0.01300888508558273</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0009474609978497028</v>
+        <v>0.004631909541785717</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002081811660900712</v>
+        <v>0.003752089571207762</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002450626343488693</v>
+        <v>0.001470937277190387</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00161004054825753</v>
+        <v>0.01161795295774937</v>
       </c>
       <c r="U7" t="n">
-        <v>3.864629252348095e-05</v>
+        <v>0.001025028061121702</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0005717526655644178</v>
+        <v>0.01237614452838898</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001439220504835248</v>
+        <v>0.009779474698007107</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0003287451399955899</v>
+        <v>0.002558631589636207</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0006359199178405106</v>
+        <v>0.005269096232950687</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0009409672347828746</v>
+        <v>0.01102349441498518</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.950053597800434e-06</v>
+        <v>0.006451552733778954</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0001096022606361657</v>
+        <v>0.004477008245885372</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.000327335437759757</v>
+        <v>0.00576293095946312</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0001603176060598344</v>
+        <v>0.002322602085769176</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0002857613144442439</v>
+        <v>0.005636401008814573</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0006725554703734815</v>
+        <v>0.006834377534687519</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0002304470835952088</v>
+        <v>0.00496002659201622</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0001527144340798259</v>
+        <v>0.008293246850371361</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.001897953450679779</v>
+        <v>0.008338660933077335</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.001360132591798902</v>
+        <v>0.003816619981080294</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0008724307408556342</v>
+        <v>0.006512521766126156</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001560710021294653</v>
+        <v>0.01823567971587181</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0004691358772106469</v>
+        <v>0.002584610600024462</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0009782703127712011</v>
+        <v>0.003697742242366076</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0001643121358938515</v>
+        <v>0.001033389125950634</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.000150982872582972</v>
+        <v>0.01373051293194294</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0001096660635084845</v>
+        <v>0.0006689894944429398</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0008364871027879417</v>
+        <v>0.009864936582744122</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0001170511823147535</v>
+        <v>0.00747118704020977</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.001580895856022835</v>
+        <v>0.005787738598883152</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.001426993519999087</v>
+        <v>0.05509481579065323</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.002671865047886968</v>
+        <v>0.000830640085041523</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.001247890759259462</v>
+        <v>0.003879271680489182</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0002815499028656632</v>
+        <v>0.01087738573551178</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.001809814828447998</v>
+        <v>0.01630708016455173</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0006628938717767596</v>
+        <v>0.002000659937039018</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0008931657648645341</v>
+        <v>0.0139271579682827</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.38120007654652e-05</v>
+        <v>0.003385134972631931</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0007446311064995825</v>
+        <v>0.0003292891196906567</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0004344681510701776</v>
+        <v>0.008661854080855846</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.001508940476924181</v>
+        <v>0.007805638946592808</v>
       </c>
       <c r="BF7" t="n">
-        <v>9.787439194042236e-05</v>
+        <v>0.008548934012651443</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.001496087061241269</v>
+        <v>0.02081038057804108</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0009056553826667368</v>
+        <v>0.003732822835445404</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001410528318956494</v>
+        <v>0.01327074877917767</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.001058596302755177</v>
+        <v>0.012590067461133</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0003570771077647805</v>
+        <v>0.003749889554455876</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0005137358093634248</v>
+        <v>0.009532762691378593</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0005736096063628793</v>
+        <v>0.0115637443959713</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.000955314957536757</v>
+        <v>0.003474289085716009</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0001219691475853324</v>
+        <v>0.003604021389037371</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.001066283090040088</v>
+        <v>0.002366311615332961</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0001861097698565573</v>
+        <v>0.006875894498080015</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0002852431498467922</v>
+        <v>0.003566626459360123</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0009435091633349657</v>
+        <v>0.005741163156926632</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0001498560595791787</v>
+        <v>0.007002085447311401</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.001694358885288239</v>
+        <v>0.006812591571360826</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0005368799902498722</v>
+        <v>0.03491942957043648</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.001175632700324059</v>
+        <v>0.01311877556145191</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.00127811694983393</v>
+        <v>0.004204056225717068</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001118344371207058</v>
+        <v>0.008220972493290901</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0002903074491769075</v>
+        <v>0.002191991545259953</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0003795173834078014</v>
+        <v>0.003524231957271695</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0003276593051850796</v>
+        <v>0.003626296995207667</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0006910524680279195</v>
+        <v>0.006016177125275135</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0009411039063706994</v>
+        <v>0.002028041053563356</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.001035836059600115</v>
+        <v>0.01014235615730286</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0009480001172050834</v>
+        <v>0.002535735722631216</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0002079458499792963</v>
+        <v>0.005896788090467453</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0003200990031473339</v>
+        <v>0.001846517785452306</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0005664537893608212</v>
+        <v>0.005169836804270744</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0002298144827364013</v>
+        <v>0.004077254328876734</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0002557615225668997</v>
+        <v>0.004216906614601612</v>
       </c>
       <c r="CL7" t="n">
-        <v>9.119325113715604e-06</v>
+        <v>0.003804543521255255</v>
       </c>
       <c r="CM7" t="n">
-        <v>3.153819852741435e-05</v>
+        <v>0.008372101932764053</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0008836607448756695</v>
+        <v>0.005565297789871693</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0002742698416113853</v>
+        <v>0.0001307912170886993</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0002841525711119175</v>
+        <v>0.009431169368326664</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0009184766095131636</v>
+        <v>0.009866555221378803</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.684783248696476e-05</v>
+        <v>0.004935581237077713</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0002003456902457401</v>
+        <v>0.01467872504144907</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.000242667505517602</v>
+        <v>0.01483918819576502</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.00068098702467978</v>
+        <v>0.001548848696984351</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0009128471720032394</v>
+        <v>0.00202804640866816</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.001013132627122104</v>
+        <v>0.008618553169071674</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.001013068598695099</v>
+        <v>0.003293181536719203</v>
       </c>
       <c r="CY7" t="n">
-        <v>2.458183007547632e-05</v>
+        <v>0.008700260892510414</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0008290664409287274</v>
+        <v>0.001340007525868714</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0005546867032535374</v>
+        <v>0.00907435454428196</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0002547048788983375</v>
+        <v>0.003103140508756042</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0001159960811492056</v>
+        <v>0.005464321933686733</v>
       </c>
       <c r="DD7" t="n">
-        <v>8.798419003142044e-05</v>
+        <v>0.0009085648925974965</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0003241504018660635</v>
+        <v>0.003284411272034049</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.002069661393761635</v>
+        <v>0.008281569927930832</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0006102701299823821</v>
+        <v>0.003406904870644212</v>
       </c>
       <c r="DH7" t="n">
-        <v>2.667930675670505e-05</v>
+        <v>0.02576043829321861</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0006768082967028022</v>
+        <v>0.01100722700357437</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0001583538250997663</v>
+        <v>0.003726084250956774</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.000188735342817381</v>
+        <v>0.01260572671890259</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.000331997056491673</v>
+        <v>0.006388726644217968</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.000502132170367986</v>
+        <v>0.007457803469151258</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0003213201416656375</v>
+        <v>0.00201886729337275</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.001055918051861227</v>
+        <v>0.006989662069827318</v>
       </c>
       <c r="DP7" t="n">
-        <v>9.141846385318786e-05</v>
+        <v>0.00460658548399806</v>
       </c>
       <c r="DQ7" t="n">
-        <v>6.261700764298439e-05</v>
+        <v>0.005305519327521324</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0005358571070246398</v>
+        <v>0.0007051688153296709</v>
       </c>
       <c r="DS7" t="n">
-        <v>5.706059164367616e-05</v>
+        <v>0.008943047374486923</v>
       </c>
       <c r="DT7" t="n">
-        <v>4.867659299634397e-05</v>
+        <v>0.00282702874392271</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.431421984918416e-06</v>
+        <v>0.003905817167833447</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0005654987180605531</v>
+        <v>0.003172978525981307</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0003564360085874796</v>
+        <v>0.003830681322142482</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0001951437734533101</v>
+        <v>0.002291380893439054</v>
       </c>
       <c r="DY7" t="n">
-        <v>4.663594882003963e-05</v>
+        <v>0.008718498051166534</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0003971557016484439</v>
+        <v>9.98261384665966e-05</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0007829393725842237</v>
+        <v>0.005418511107563972</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0002347277768421918</v>
+        <v>0.006144034210592508</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0002046859153779224</v>
+        <v>0.0003257442731410265</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.001182577107101679</v>
+        <v>0.005076531320810318</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0002823827671818435</v>
+        <v>0.0001260429853573442</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.001402482856065035</v>
+        <v>0.002025339286774397</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0006515209679491818</v>
+        <v>0.00987965427339077</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.00092559854965657</v>
+        <v>0.00417507765814662</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.000265070324530825</v>
+        <v>0.003055643057450652</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002978910342790186</v>
+        <v>0.01095179095864296</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.001265585538931191</v>
+        <v>0.004819945897907019</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.000101940066087991</v>
+        <v>0.004992373287677765</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0009063915931619704</v>
+        <v>0.002924009459093213</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0007132632890716195</v>
+        <v>0.0001331319799646735</v>
       </c>
       <c r="EO7" t="n">
-        <v>8.39545828057453e-06</v>
+        <v>0.0003072270192205906</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001368649303913116</v>
+        <v>0.002828328870236874</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0006100420141592622</v>
+        <v>0.009562257677316666</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.248146872967482e-06</v>
+        <v>0.008943933062255383</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0003261333622504026</v>
+        <v>0.005487105809152126</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0006095157586969435</v>
+        <v>0.01350124645978212</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0005509216571226716</v>
+        <v>0.004083711188286543</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0002199235605075955</v>
+        <v>0.01268477737903595</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0005395959015004337</v>
+        <v>0.00130204507149756</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0009039725991897285</v>
+        <v>0.001483271713368595</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.000872812292072922</v>
+        <v>0.007739189546555281</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001019895542412996</v>
+        <v>0.002272582147270441</v>
       </c>
       <c r="FA7" t="n">
-        <v>6.970090907998383e-06</v>
+        <v>0.007827014662325382</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0004602504777722061</v>
+        <v>1.636327942833304e-05</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.000289351271931082</v>
+        <v>0.006114540621638298</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0002655874122865498</v>
+        <v>0.005261032842099667</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0002845669514499605</v>
+        <v>0.005188500508666039</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0001712846278678626</v>
+        <v>0.003815019503235817</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0006772145279683173</v>
+        <v>0.002184635959565639</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0003876850241795182</v>
+        <v>0.006319383159279823</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.000591025163885206</v>
+        <v>0.009481464512646198</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001070926897227764</v>
+        <v>0.01087071746587753</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0005077701061964035</v>
+        <v>0.002307700924575329</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.000560696586035192</v>
+        <v>0.0003116352017968893</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0002688899694476277</v>
+        <v>1.612585037946701e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0003612781874835491</v>
+        <v>0.003442005719989538</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0005253933486528695</v>
+        <v>0.005069048143923283</v>
       </c>
       <c r="FP7" t="n">
-        <v>8.366894326172769e-05</v>
+        <v>0.0002755799796432257</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.002363538835197687</v>
+        <v>0.01091440580785275</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.00033312983578071</v>
+        <v>0.01026723347604275</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001073039951734245</v>
+        <v>0.01144157256931067</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0005958403344266117</v>
+        <v>0.007495467085391283</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0002999122953042388</v>
+        <v>0.0003429681528359652</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0001182321284431964</v>
+        <v>0.008480323478579521</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0002103026345139369</v>
+        <v>0.004465073347091675</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0002989336790051311</v>
+        <v>0.0004247609758749604</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0004966437700204551</v>
+        <v>0.01021525263786316</v>
       </c>
       <c r="FZ7" t="n">
-        <v>7.174181519076228e-06</v>
+        <v>0.001777382218278944</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0001602942647878081</v>
+        <v>0.00111219403333962</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0005689598037861288</v>
+        <v>0.006465183105319738</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.001178021193481982</v>
+        <v>0.007010583765804768</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0007342955796048045</v>
+        <v>0.008239729329943657</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0004092362651135772</v>
+        <v>0.0301455594599247</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0001273446396226063</v>
+        <v>0.002685714513063431</v>
       </c>
       <c r="GG7" t="n">
-        <v>7.212543278001249e-05</v>
+        <v>0.0004237866960465908</v>
       </c>
     </row>
     <row r="8">
